--- a/Plant Log 2021.xlsx
+++ b/Plant Log 2021.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
   <si>
     <t>Date</t>
   </si>
@@ -59,6 +59,9 @@
   </si>
   <si>
     <t>nemesia</t>
+  </si>
+  <si>
+    <t>Delphimuim</t>
   </si>
 </sst>
 </file>
@@ -401,7 +404,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
@@ -536,6 +539,17 @@
         <v>1</v>
       </c>
     </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" s="1">
+        <v>44297</v>
+      </c>
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Plant Log 2021.xlsx
+++ b/Plant Log 2021.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="23">
   <si>
     <t>Date</t>
   </si>
@@ -62,6 +62,27 @@
   </si>
   <si>
     <t>Delphimuim</t>
+  </si>
+  <si>
+    <t>runner Bean</t>
+  </si>
+  <si>
+    <t>Parsley - Giant of Italy</t>
+  </si>
+  <si>
+    <t>Sage</t>
+  </si>
+  <si>
+    <t>Basil - Lettuce leaf</t>
+  </si>
+  <si>
+    <t>Dianthus - Baby doll Mixed</t>
+  </si>
+  <si>
+    <t>Delphimium - Pacific Giants Mixed</t>
+  </si>
+  <si>
+    <t>Hollyhock - Double Mixed</t>
   </si>
 </sst>
 </file>
@@ -404,15 +425,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.54296875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -550,6 +571,81 @@
         <v>1</v>
       </c>
     </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" s="1">
+        <v>44300</v>
+      </c>
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" s="1">
+        <v>44300</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" s="1">
+        <v>44303</v>
+      </c>
+      <c r="B16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" s="1">
+        <v>44303</v>
+      </c>
+      <c r="B17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" s="1">
+        <v>44303</v>
+      </c>
+      <c r="B18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" s="1">
+        <v>44303</v>
+      </c>
+      <c r="B19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" s="1">
+        <v>44303</v>
+      </c>
+      <c r="B20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" s="1">
+        <v>44303</v>
+      </c>
+      <c r="B21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" s="1">
+        <v>44303</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Plant Log 2021.xlsx
+++ b/Plant Log 2021.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="25">
   <si>
     <t>Date</t>
   </si>
@@ -83,6 +83,12 @@
   </si>
   <si>
     <t>Hollyhock - Double Mixed</t>
+  </si>
+  <si>
+    <t>油麦菜</t>
+  </si>
+  <si>
+    <t>Moved to the front of shed</t>
   </si>
 </sst>
 </file>
@@ -98,12 +104,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -118,9 +130,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -425,228 +440,321 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="29.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="1">
+      <c r="G1" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1">
         <v>44269</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="1">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1">
         <v>44269</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="1">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1">
         <v>44269</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="1">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B5" s="1">
         <v>44269</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="1">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B6" s="1">
         <v>44269</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="1">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="1">
         <v>44284</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>8</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="1">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="1">
         <v>44276</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>9</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="1">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="1">
         <v>44276</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>10</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="1">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="1">
         <v>44276</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>11</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="1">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="1">
         <v>44276</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>12</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="1">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="1">
         <v>44282</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>14</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="1">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="1">
         <v>44297</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>15</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="1">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="1">
         <v>44300</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>5</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" s="1">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="1">
         <v>44300</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>16</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" s="1">
+      <c r="G15" s="2">
+        <v>44331</v>
+      </c>
+      <c r="H15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="1">
         <v>44303</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" s="1">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="1">
         <v>44303</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" s="1">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="1">
         <v>44303</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" s="1">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="1">
         <v>44303</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" s="1">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="1">
         <v>44303</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" s="1">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="1">
         <v>44303</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" s="1">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B22" s="1">
         <v>44303</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" s="1">
+        <v>44332</v>
+      </c>
+      <c r="C23" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1">
+        <v>44333</v>
+      </c>
+      <c r="C24" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Plant Log 2021.xlsx
+++ b/Plant Log 2021.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="27">
   <si>
     <t>Date</t>
   </si>
@@ -89,6 +89,12 @@
   </si>
   <si>
     <t>Moved to the front of shed</t>
+  </si>
+  <si>
+    <t>canna</t>
+  </si>
+  <si>
+    <t>cornflower</t>
   </si>
 </sst>
 </file>
@@ -440,11 +446,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -753,6 +759,22 @@
         <v>23</v>
       </c>
     </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="1">
+        <v>44353</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="1">
+        <v>44353</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
